--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -668,40 +642,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,05; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 5,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,26</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 6,21</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>341,78%</t>
         </is>
@@ -768,24 +722,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,44; 2,51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 2,19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 3,78</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -793,17 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,5; —</t>
+          <t>-8,19; —</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>584,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>500,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>584,07%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>500,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>31,83%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 3,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,09</t>
+          <t>0,73; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,12</t>
+          <t>-1,3; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,78</t>
+          <t>125,04; 2828,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,14; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,26; 2675,7</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>11,93; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 150,67</t>
+          <t>-28,72; 153,68</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>184,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>184,81%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>166,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>180,57%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 6,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,36</t>
+          <t>1,52; 6,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,9</t>
+          <t>4,64; 12,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,01</t>
+          <t>36,45; 465,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,33; 448,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,66; 475,85</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>35,94; 398,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>73,49; 523,56</t>
+          <t>75,69; 567,93</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>329,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>202,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>329,38%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>202,31%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>103,15%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,4; 15,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,03</t>
+          <t>6,18; 14,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,66</t>
+          <t>6,14; 12,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 12,24</t>
+          <t>152,14; 691,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,33; 434,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>150,36; 686,54</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>87,1; 384,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>50,35; 164,96</t>
+          <t>57,91; 175,17</t>
         </is>
       </c>
     </row>
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,23</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>40,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>214,01%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>29,41%</t>
         </is>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 11,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 11,57</t>
+          <t>9,35; 19,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 19,75</t>
+          <t>-7,86; 13,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 13,6</t>
+          <t>-3,49; 106,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,14; 405,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 108,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>103,64; 409,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,61; 109,74</t>
+          <t>-49,85; 113,04</t>
         </is>
       </c>
     </row>
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,33</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>73,55%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>54,45%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>63,82%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,17; 21,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,32</t>
+          <t>3,02; 15,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 15,94</t>
+          <t>11,26; 22,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,54; 22,09</t>
+          <t>29,72; 134,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,73; 117,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,44; 139,16</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>14,03; 118,27</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>38,25; 94,14</t>
+          <t>36,65; 94,35</t>
         </is>
       </c>
     </row>
@@ -1320,40 +1164,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>159,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>159,87%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>186,74%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>109,25%</t>
         </is>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 6,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,03</t>
+          <t>4,69; 7,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,13</t>
+          <t>4,51; 8,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,18</t>
+          <t>111,2; 217,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,22; 256,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>108,48; 224,91</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>132,91; 263,77</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>69,62; 167,63</t>
+          <t>68,6; 159,89</t>
         </is>
       </c>
     </row>
@@ -1416,13 +1240,13 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
